--- a/doc/Classeur.xlsx
+++ b/doc/Classeur.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="50 repliques" sheetId="1" r:id="rId1"/>
+    <sheet name="5000 repliques" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>max</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Données</t>
+  </si>
+  <si>
+    <t>Replications</t>
+  </si>
+  <si>
+    <t>Temps (s)</t>
   </si>
 </sst>
 </file>
@@ -78,15 +84,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -94,6 +107,284 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="140"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="40"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7812992125984252E-2"/>
+                  <c:y val="-2.8252405949256341E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil3!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil3!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.34799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8119999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.521000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.541</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.605</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.844999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.972999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.516999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.373999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.998000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146540800"/>
+        <c:axId val="146538880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146540800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146538880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146538880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146540800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>757237</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>757237</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:B21" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:B21"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Replications"/>
+    <tableColumn id="2" name="Temps (s)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,7 +677,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25781,12 +26072,191 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0.53200000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>2.016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>2.8159999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>2.8119999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>3.6760000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>200</v>
+      </c>
+      <c r="B12">
+        <v>6.8959999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>300</v>
+      </c>
+      <c r="B13">
+        <v>10.521000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>400</v>
+      </c>
+      <c r="B14">
+        <v>11.541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>500</v>
+      </c>
+      <c r="B15">
+        <v>14.605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>600</v>
+      </c>
+      <c r="B16">
+        <v>18.844999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>700</v>
+      </c>
+      <c r="B17">
+        <v>19.972999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>800</v>
+      </c>
+      <c r="B18">
+        <v>22.516999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>900</v>
+      </c>
+      <c r="B19">
+        <v>26.373999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1000</v>
+      </c>
+      <c r="B20">
+        <v>27.998000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5000</v>
+      </c>
+      <c r="B21">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/doc/Classeur.xlsx
+++ b/doc/Classeur.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="50 repliques" sheetId="1" r:id="rId1"/>
     <sheet name="5000 repliques" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="perfs" sheetId="3" r:id="rId3"/>
+    <sheet name="perfs 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>max</t>
   </si>
@@ -47,15 +48,19 @@
   <si>
     <t>Temps (s)</t>
   </si>
+  <si>
+    <t>Années</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +68,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,21 +117,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="40 % - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60 % - Accent6" xfId="3" builtinId="52"/>
+    <cellStyle name="Accent6" xfId="1" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -148,7 +204,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil3!$A$2:$A$21</c:f>
+              <c:f>perfs!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -217,7 +273,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil3!$B$2:$B$21</c:f>
+              <c:f>perfs!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -341,6 +397,218 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="140"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="40"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'perfs 2'!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'perfs 2'!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0,\.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="13224576"/>
+        <c:axId val="13223040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="13224576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="13223040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="13223040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0,\.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="13224576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -376,12 +644,58 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:B21" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:B21" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:B21"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Replications"/>
     <tableColumn id="2" name="Temps (s)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:B20" totalsRowShown="0">
+  <autoFilter ref="A1:B20"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Années"/>
+    <tableColumn id="2" name="Temps (s)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -676,7 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -695,7 +1009,7 @@
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -706,7 +1020,7 @@
       <c r="A2" s="1">
         <v>35289225122</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <f>AVERAGE(A2:A1048576)</f>
         <v>62659196295.639999</v>
       </c>
@@ -724,7 +1038,7 @@
       <c r="A4" s="1">
         <v>37295102807</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -732,7 +1046,7 @@
       <c r="A5" s="1">
         <v>105904641998</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -743,7 +1057,7 @@
       <c r="A6" s="1">
         <v>138440739209</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <f>C2-E6</f>
         <v>45068616212.913315</v>
       </c>
@@ -761,7 +1075,7 @@
       <c r="A8" s="1">
         <v>27944964308</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -769,7 +1083,7 @@
       <c r="A9" s="1">
         <v>82069491956</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <f>C2+E6</f>
         <v>80249776378.366684</v>
       </c>
@@ -788,7 +1102,7 @@
       <c r="A12" s="1">
         <v>7674352826</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -796,7 +1110,7 @@
       <c r="A13" s="1">
         <v>0</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <f>COUNTIF(A2:A1048576, "&gt;0")</f>
         <v>39</v>
       </c>
@@ -1001,7 +1315,7 @@
   <dimension ref="A1:E5001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1048576"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1333,7 @@
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1030,7 +1344,7 @@
       <c r="A2" s="1">
         <v>35289225122</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <f>AVERAGE(A2:A1048576)</f>
         <v>62909831000.546799</v>
       </c>
@@ -1048,7 +1362,7 @@
       <c r="A4" s="1">
         <v>37295102807</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1056,7 +1370,7 @@
       <c r="A5" s="1">
         <v>105904641998</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1067,7 +1381,7 @@
       <c r="A6" s="1">
         <v>138440739209</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <f>C2-E6</f>
         <v>61316317527.796135</v>
       </c>
@@ -1085,7 +1399,7 @@
       <c r="A8" s="1">
         <v>27944964308</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1093,7 +1407,7 @@
       <c r="A9" s="1">
         <v>82069491956</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <f>C2+E6</f>
         <v>64503344473.297462</v>
       </c>
@@ -1112,7 +1426,7 @@
       <c r="A12" s="1">
         <v>7674352826</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1120,7 +1434,7 @@
       <c r="A13" s="1">
         <v>0</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <f>COUNTIF(A2:A1048576, "&gt;0")</f>
         <v>3936</v>
       </c>
@@ -26085,10 +26399,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -26250,6 +26564,188 @@
       </c>
       <c r="B21">
         <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8" s="7">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>200</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>300</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>400</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>500</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>600</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>700</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>800</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>900</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1000</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1.032</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Classeur.xlsx
+++ b/doc/Classeur.xlsx
@@ -1,23 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\OneDrive\GitHub\Simulation_Lapins\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="50 repliques" sheetId="1" r:id="rId1"/>
     <sheet name="5000 repliques" sheetId="2" r:id="rId2"/>
     <sheet name="perfs" sheetId="3" r:id="rId3"/>
     <sheet name="perfs 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlchart.0" hidden="1">Feuil1!$E$40:$E$44</definedName>
+    <definedName name="_xlchart.1" hidden="1">Feuil1!$F$40:$F$44</definedName>
+    <definedName name="_xlchart.2" hidden="1">Feuil1!$E$40:$E$44</definedName>
+    <definedName name="_xlchart.3" hidden="1">Feuil1!$F$40:$F$44</definedName>
+    <definedName name="_xlchart.4" hidden="1">Feuil1!$E$40:$E$44</definedName>
+    <definedName name="_xlchart.5" hidden="1">Feuil1!$F$40:$F$44</definedName>
+    <definedName name="_xlchart.6" hidden="1">Feuil1!$E$40:$E$44</definedName>
+    <definedName name="_xlchart.7" hidden="1">Feuil1!$F$40:$F$44</definedName>
+    <definedName name="_xlchart.8" hidden="1">Feuil1!$E$26:$E$37</definedName>
+    <definedName name="_xlchart.9" hidden="1">Feuil1!$F$26:$F$37</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>max</t>
   </si>
@@ -51,16 +69,76 @@
   <si>
     <t>Années</t>
   </si>
+  <si>
+    <t>Age (en années)</t>
+  </si>
+  <si>
+    <t>Taux de survie (en %)</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>en années</t>
+  </si>
+  <si>
+    <t>Taux de</t>
+  </si>
+  <si>
+    <t>survie en %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 à 9 mois</t>
+  </si>
+  <si>
+    <t>10 à 12 mois</t>
+  </si>
+  <si>
+    <t>janvier</t>
+  </si>
+  <si>
+    <t>février</t>
+  </si>
+  <si>
+    <t>mars</t>
+  </si>
+  <si>
+    <t>avril</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>juin</t>
+  </si>
+  <si>
+    <t>juillet</t>
+  </si>
+  <si>
+    <t>août</t>
+  </si>
+  <si>
+    <t>septembre</t>
+  </si>
+  <si>
+    <t>octobre</t>
+  </si>
+  <si>
+    <t>novembre</t>
+  </si>
+  <si>
+    <t>décembre</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,8 +160,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,13 +193,32 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -123,7 +228,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -137,9 +242,23 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -148,9 +267,15 @@
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -161,12 +286,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -341,6 +469,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2590-4A5A-864D-8169E52C8013}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -398,7 +531,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -490,7 +623,7 @@
             <c:numRef>
               <c:f>'perfs 2'!$B$2:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>#,##0,\.000</c:formatCode>
+                <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -553,6 +686,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15CE-4223-81B1-48264401F854}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -588,7 +726,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0,\.000" sourceLinked="1"/>
+        <c:numFmt formatCode="#\ ##0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -607,6 +745,2169 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Taux de survie (en %)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFA6-48F1-8E5F-24D9779BBC25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="481453424"/>
+        <c:axId val="481445224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="481453424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481445224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="481445224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481453424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.8</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Probabilité de donner une portée par femelle</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{E1B8260D-BAF9-45FA-AF12-CA766B40ACB1}" formatIdx="0">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Probabilité du nombre de portées par an</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{A489BDD1-97CD-48BE-8FF4-676F54572371}" formatIdx="0">
+          <cx:dataLabels pos="outEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,8 +2980,179 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Graphique 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Graphique 3"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:B21" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:B21" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:B21"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Replications"/>
@@ -695,7 +3167,18 @@
   <autoFilter ref="A1:B20"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Années"/>
-    <tableColumn id="2" name="Temps (s)" dataDxfId="0"/>
+    <tableColumn id="2" name="Temps (s)" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau15" displayName="Tableau15" ref="K4:L20" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="K4:L20"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="en années" dataDxfId="0"/>
+    <tableColumn id="2" name="survie en %"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -744,7 +3227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -779,7 +3262,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -991,7 +3474,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,7 +3798,7 @@
   <dimension ref="A1:E5001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26579,8 +29062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26755,4 +29238,479 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <f>9/12</f>
+        <v>0.75</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <f>9/12</f>
+        <v>0.75</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="K7" s="14">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="K8" s="12">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="K9" s="12">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="K10" s="12">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="K11" s="12">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="K12" s="12">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="K13" s="12">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="K14" s="12">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="K15" s="12">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="K16" s="12">
+        <v>11</v>
+      </c>
+      <c r="L16" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="K17" s="12">
+        <v>12</v>
+      </c>
+      <c r="L17" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="K18" s="12">
+        <v>13</v>
+      </c>
+      <c r="L18" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="K19" s="12">
+        <v>14</v>
+      </c>
+      <c r="L19" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="K20" s="12">
+        <v>15</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <f>4/16</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <f>6/16</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>